--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175634.9298474945</v>
+        <v>174649.6671025919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21676464.76147076</v>
+        <v>22102563.87447304</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7008320.678516638</v>
+        <v>7421950.445289526</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5793334.422708407</v>
+        <v>5584760.847774423</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>220.0376275969493</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>284.9671928144475</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>34.7181121725785</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.97358346682135</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>250.8055444222957</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>396.2906240266967</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1060,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.46824604904426</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361696</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,10 +1150,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>120.122206759728</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>262.9077296626688</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.42894579208244</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1373,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>293.6342529536947</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>118.0085171757158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>67.42894579208244</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,16 +1609,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1661,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>54.55340531488843</v>
+        <v>165.9157018704142</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225758</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1850,19 +1852,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.91568880648681</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>228.1083531931831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2081,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>392.9483186503733</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>35.16791248334784</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2381,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>185.1447535886767</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2482,16 +2484,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>64.90507698037602</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>129.1844953677058</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>246.4712383045181</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2716,13 +2718,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>32.98066327132575</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>151.2896809263503</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2767,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>185.5573750678088</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2852,10 +2854,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>246.7304339296961</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>54.66258501924893</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>332.8743775091445</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>28.60468344882653</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>54.55340531488891</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3320,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>148.3429864636584</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3430,16 +3432,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>47.61404849749845</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>14.14416275345371</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>268.3727301458093</v>
+        <v>53.00122480006321</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998642</v>
+        <v>152.5004364948334</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>296.8892364867857</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>34.75529100421647</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>111.2693566202702</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>16.92574903168972</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>386.1273223686326</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>50.58044123244948</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4068,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>22.74710563292977</v>
       </c>
       <c r="T46" t="n">
-        <v>85.20150564759308</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>565.2083903541807</v>
+        <v>890.7088327309202</v>
       </c>
       <c r="C2" t="n">
-        <v>342.9481604582723</v>
+        <v>890.7088327309202</v>
       </c>
       <c r="D2" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="E2" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4334,46 +4336,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748445</v>
       </c>
       <c r="V2" t="n">
-        <v>2223.792002549091</v>
+        <v>2122.992874440923</v>
       </c>
       <c r="W2" t="n">
-        <v>1818.936547960124</v>
+        <v>1718.137419851956</v>
       </c>
       <c r="X2" t="n">
-        <v>1399.794084539435</v>
+        <v>1298.994956431267</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.5079608390885</v>
+        <v>890.7088327309202</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>1348.380717347871</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>1348.380717347871</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>1348.380717347871</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>1348.380717347871</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N3" t="n">
-        <v>2009.22077188965</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>2670.060826431428</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
-        <v>2670.060826431428</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4483,22 +4485,22 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.45937714051</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>595.8703048453069</v>
+        <v>855.0926075282906</v>
       </c>
       <c r="C5" t="n">
-        <v>595.8703048453069</v>
+        <v>855.0926075282906</v>
       </c>
       <c r="D5" t="n">
-        <v>342.5313710854123</v>
+        <v>855.0926075282906</v>
       </c>
       <c r="E5" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2035.921380153963</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q5" t="n">
-        <v>2582.420166112558</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.15434655531</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>1423.298891966343</v>
+        <v>1682.521194649327</v>
       </c>
       <c r="X5" t="n">
-        <v>1004.156428545654</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y5" t="n">
-        <v>595.8703048453069</v>
+        <v>855.0926075282906</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309884</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E7" t="n">
-        <v>424.4553496309884</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F7" t="n">
-        <v>247.7482955927446</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>82.15702061857226</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2574.890331639896</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2329.010885218351</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2050.577884471456</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1172.213421425801</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="C8" t="n">
-        <v>1172.213421425801</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="D8" t="n">
-        <v>1172.213421425801</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2548.725264047865</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2548.725264047865</v>
       </c>
       <c r="V8" t="n">
-        <v>2404.497463135803</v>
+        <v>2548.725264047865</v>
       </c>
       <c r="W8" t="n">
-        <v>1999.642008546836</v>
+        <v>2143.869809458898</v>
       </c>
       <c r="X8" t="n">
-        <v>1580.499545126147</v>
+        <v>1724.727346038208</v>
       </c>
       <c r="Y8" t="n">
-        <v>1172.213421425801</v>
+        <v>1316.441222337862</v>
       </c>
     </row>
     <row r="9">
@@ -4875,22 +4877,22 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N9" t="n">
         <v>1599.468199913098</v>
@@ -4957,22 +4959,22 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1437.776784721425</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="C11" t="n">
-        <v>1437.776784721425</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="D11" t="n">
-        <v>1001.86699989587</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E11" t="n">
-        <v>1001.86699989587</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F11" t="n">
-        <v>573.9995703050777</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G11" t="n">
-        <v>172.6017389283415</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K11" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M11" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N11" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5075,16 +5077,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X11" t="n">
-        <v>1846.062908421772</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="Y11" t="n">
-        <v>1437.776784721425</v>
+        <v>1902.588421776288</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J12" t="n">
-        <v>79.46488968908616</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K12" t="n">
-        <v>79.46488968908616</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L12" t="n">
-        <v>740.3049442308645</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="M12" t="n">
-        <v>1401.144998772643</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="N12" t="n">
-        <v>1716.640978007438</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="O12" t="n">
-        <v>1716.640978007438</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P12" t="n">
-        <v>1716.640978007438</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q12" t="n">
         <v>1716.640978007438</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C13" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D13" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E13" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F13" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K13" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L13" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O13" t="n">
         <v>2154.361157596754</v>
@@ -5221,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S13" t="n">
-        <v>2601.950780176799</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T13" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U13" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V13" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W13" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X13" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y13" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1361.228219012466</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="C14" t="n">
-        <v>923.0857461958889</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="D14" t="n">
-        <v>487.1759613703334</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="E14" t="n">
-        <v>53.40121652862856</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
@@ -5282,22 +5284,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M14" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5309,19 +5311,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2614.956376618409</v>
+        <v>2502.469208380505</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.956376618409</v>
+        <v>2139.852258314331</v>
       </c>
       <c r="W14" t="n">
-        <v>2614.956376618409</v>
+        <v>1734.996803725364</v>
       </c>
       <c r="X14" t="n">
-        <v>2195.81391319772</v>
+        <v>1315.854340304675</v>
       </c>
       <c r="Y14" t="n">
-        <v>1787.527789497373</v>
+        <v>907.5682166043287</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J15" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K15" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N15" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O15" t="n">
-        <v>1058.729261281022</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q15" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C16" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5467,19 +5469,19 @@
         <v>2424.181380009883</v>
       </c>
       <c r="U16" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V16" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W16" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X16" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y16" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>927.8702635436207</v>
+        <v>1835.475132246174</v>
       </c>
       <c r="C17" t="n">
-        <v>489.7277907270441</v>
+        <v>1397.332659429597</v>
       </c>
       <c r="D17" t="n">
-        <v>53.81800590148855</v>
+        <v>961.4228746040417</v>
       </c>
       <c r="E17" t="n">
-        <v>53.81800590148855</v>
+        <v>527.6481297623368</v>
       </c>
       <c r="F17" t="n">
-        <v>53.81800590148855</v>
+        <v>99.78070017154454</v>
       </c>
       <c r="G17" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H17" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
@@ -5528,37 +5530,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O17" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2003.72477542213</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W17" t="n">
-        <v>1773.312297449218</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X17" t="n">
-        <v>1354.169834028528</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Y17" t="n">
-        <v>1354.169834028528</v>
+        <v>2261.774702731082</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K18" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M18" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N18" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5668,7 +5670,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2169.142838049533</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C20" t="n">
-        <v>1772.225344463297</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D20" t="n">
-        <v>1336.315559637742</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E20" t="n">
-        <v>902.5408147960371</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F20" t="n">
-        <v>474.6733852052449</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G20" t="n">
-        <v>73.27555382850876</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
-        <v>73.27555382850876</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>72.85876445564877</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>907.2090564138267</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1808.83626655248</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M20" t="n">
-        <v>1808.83626655248</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N20" t="n">
-        <v>1808.83626655248</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="O20" t="n">
-        <v>2710.463476691134</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="P20" t="n">
-        <v>3538.77335152453</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q20" t="n">
-        <v>3642.938222782438</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>3422.870995655477</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>3422.870995655477</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V20" t="n">
-        <v>3422.870995655477</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>3422.870995655477</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X20" t="n">
-        <v>3003.728532234788</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y20" t="n">
-        <v>2595.442408534441</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2485.870206294922</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C21" t="n">
-        <v>2379.413745131565</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D21" t="n">
-        <v>2284.323456278118</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E21" t="n">
-        <v>2190.203041605072</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F21" t="n">
-        <v>2106.819203221233</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G21" t="n">
-        <v>2021.434113487417</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H21" t="n">
-        <v>1979.69846130363</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I21" t="n">
-        <v>2005.762134464087</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J21" t="n">
-        <v>2330.3204594303</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K21" t="n">
-        <v>2985.026506056023</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L21" t="n">
-        <v>2985.026506056023</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M21" t="n">
-        <v>2985.026506056023</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N21" t="n">
-        <v>2985.026506056023</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O21" t="n">
-        <v>2985.026506056023</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P21" t="n">
-        <v>2985.026506056023</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q21" t="n">
-        <v>3525.765444688098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R21" t="n">
-        <v>3642.938222782438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S21" t="n">
-        <v>3579.482785230821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T21" t="n">
-        <v>3449.304141561423</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U21" t="n">
-        <v>3272.967594561391</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V21" t="n">
-        <v>3073.850076623391</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W21" t="n">
-        <v>2888.527322356585</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X21" t="n">
-        <v>2733.659886595465</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y21" t="n">
-        <v>2607.174107374686</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.35480153258</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C22" t="n">
-        <v>750.793090015805</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D22" t="n">
-        <v>584.9150972173277</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E22" t="n">
-        <v>415.1570934680649</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F22" t="n">
-        <v>238.4500394298211</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G22" t="n">
-        <v>72.85876445564877</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I22" t="n">
-        <v>72.85876445564877</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J22" t="n">
-        <v>159.4384496203386</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>434.1969041914742</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>852.4067859594353</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1311.890653140348</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1754.149456297993</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.818705523774</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2521.325599494116</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2689.518374358448</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2671.279205315764</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2425.399758894219</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.966758147325</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V22" t="n">
-        <v>1860.011250017755</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.984845604047</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.593090937459</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y22" t="n">
-        <v>1115.173420251567</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K24" t="n">
-        <v>3800.424250186843</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L24" t="n">
-        <v>3800.424250186843</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M24" t="n">
-        <v>3800.424250186843</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N24" t="n">
-        <v>3800.424250186843</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O24" t="n">
-        <v>3800.424250186843</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>744.3459918350084</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C26" t="n">
-        <v>744.3459918350084</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D26" t="n">
-        <v>744.3459918350084</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E26" t="n">
-        <v>744.3459918350084</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F26" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G26" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
@@ -6230,22 +6232,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>1149.495958523325</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M26" t="n">
-        <v>1149.495958523325</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N26" t="n">
-        <v>1149.495958523325</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O26" t="n">
-        <v>1462.721985931055</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P26" t="n">
-        <v>2123.562040472833</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="Q26" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6254,22 +6256,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U26" t="n">
-        <v>2107.11942280532</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V26" t="n">
-        <v>2107.11942280532</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="W26" t="n">
-        <v>1702.263968216353</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="X26" t="n">
-        <v>1283.121504795664</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="Y26" t="n">
-        <v>874.8353810953173</v>
+        <v>2078.225803160042</v>
       </c>
     </row>
     <row r="27">
@@ -6297,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6306,19 +6308,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O27" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1019.910233398507</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C28" t="n">
-        <v>847.3485218817324</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D28" t="n">
-        <v>681.4705290832551</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="E28" t="n">
-        <v>511.7125253339923</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F28" t="n">
         <v>358.8946658124264</v>
@@ -6376,10 +6378,10 @@
         <v>193.303390838254</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6388,7 +6390,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324152</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
@@ -6415,19 +6417,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>1956.566681883682</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W28" t="n">
-        <v>1684.540277469974</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X28" t="n">
-        <v>1439.148522803386</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y28" t="n">
-        <v>1211.728852117495</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>744.3459918350084</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="C29" t="n">
-        <v>744.3459918350084</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="D29" t="n">
-        <v>744.3459918350084</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="E29" t="n">
-        <v>744.3459918350084</v>
+        <v>931.3608944498341</v>
       </c>
       <c r="F29" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K29" t="n">
-        <v>1149.495958523325</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L29" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M29" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N29" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S29" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V29" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W29" t="n">
-        <v>1828.15434655531</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X29" t="n">
-        <v>1578.931686020263</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y29" t="n">
-        <v>1170.645562319916</v>
+        <v>931.3608944498341</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6543,19 +6545,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L30" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M30" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N30" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O30" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P30" t="n">
         <v>1058.729261281022</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C31" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D31" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E31" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F31" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G31" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6646,25 +6648,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T31" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U31" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V31" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W31" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X31" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y31" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>389.6379614873604</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="C32" t="n">
-        <v>53.40121652862856</v>
+        <v>1668.976949988744</v>
       </c>
       <c r="D32" t="n">
-        <v>53.40121652862856</v>
+        <v>1233.067165163189</v>
       </c>
       <c r="E32" t="n">
-        <v>53.40121652862856</v>
+        <v>799.2924203214839</v>
       </c>
       <c r="F32" t="n">
-        <v>53.40121652862856</v>
+        <v>371.4249907306916</v>
       </c>
       <c r="G32" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N32" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O32" t="n">
-        <v>1462.721985931055</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P32" t="n">
-        <v>2123.562040472833</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q32" t="n">
         <v>2670.060826431428</v>
@@ -6725,25 +6727,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S32" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U32" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V32" t="n">
-        <v>2048.221573682271</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W32" t="n">
-        <v>1643.366119093304</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="X32" t="n">
-        <v>1224.223655672615</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="Y32" t="n">
-        <v>815.9375319722682</v>
+        <v>2107.119422805321</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.1364226482442</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C34" t="n">
-        <v>749.5747111314691</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D34" t="n">
-        <v>583.6967183329918</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E34" t="n">
-        <v>413.9387145837291</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F34" t="n">
-        <v>237.2316605454853</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G34" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T34" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U34" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V34" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W34" t="n">
-        <v>1586.766466719711</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X34" t="n">
-        <v>1341.374712053123</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.955041367231</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>925.3184341869101</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C35" t="n">
-        <v>487.1759613703334</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D35" t="n">
-        <v>487.1759613703334</v>
+        <v>542.2804111833525</v>
       </c>
       <c r="E35" t="n">
-        <v>53.40121652862856</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K35" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L35" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M35" t="n">
-        <v>1810.336013065103</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N35" t="n">
-        <v>2471.176067606882</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O35" t="n">
-        <v>2471.176067606882</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P35" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
@@ -6968,19 +6970,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U35" t="n">
-        <v>2520.219425963086</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V35" t="n">
-        <v>2157.602475896912</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W35" t="n">
-        <v>1752.747021307946</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X35" t="n">
-        <v>1333.604557887257</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y35" t="n">
-        <v>925.3184341869101</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363603</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F37" t="n">
-        <v>233.2795245870976</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G37" t="n">
-        <v>67.68824961292523</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U37" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>743.9292024621484</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C38" t="n">
-        <v>743.9292024621484</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D38" t="n">
-        <v>743.9292024621484</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E38" t="n">
-        <v>743.9292024621484</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F38" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G38" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L38" t="n">
-        <v>1293.567921177998</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M38" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N38" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="O38" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7202,22 +7204,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T38" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U38" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V38" t="n">
-        <v>1828.15434655531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W38" t="n">
-        <v>1423.298891966343</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X38" t="n">
-        <v>1423.298891966343</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y38" t="n">
-        <v>1015.012768265996</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1132.45937714051</v>
+        <v>992.5572028308848</v>
       </c>
       <c r="C40" t="n">
-        <v>959.897665623735</v>
+        <v>819.9954913141097</v>
       </c>
       <c r="D40" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156324</v>
       </c>
       <c r="E40" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663697</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281259</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539536</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539532</v>
+        <v>142.0611657539536</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862891</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K40" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S40" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T40" t="n">
-        <v>2634.504334502149</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U40" t="n">
-        <v>2356.071333755254</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V40" t="n">
-        <v>2069.115825625685</v>
+        <v>1929.21365131606</v>
       </c>
       <c r="W40" t="n">
-        <v>1797.089421211977</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X40" t="n">
-        <v>1551.697666545389</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y40" t="n">
-        <v>1324.277995859497</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1217.066548608396</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C41" t="n">
-        <v>1217.066548608396</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D41" t="n">
-        <v>781.1567637828407</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E41" t="n">
-        <v>781.1567637828407</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F41" t="n">
-        <v>353.2893341920484</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L41" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M41" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N41" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P41" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7442,19 +7444,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U41" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V41" t="n">
-        <v>2048.221573682271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W41" t="n">
-        <v>1643.366119093304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X41" t="n">
-        <v>1643.366119093304</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y41" t="n">
-        <v>1643.366119093304</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C42" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D42" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E42" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F42" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G42" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I42" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J42" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P42" t="n">
-        <v>1058.729261281022</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q42" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R42" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S42" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T42" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U42" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V42" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W42" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X42" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y42" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>990.3147246321325</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C43" t="n">
-        <v>817.7530131153575</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D43" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E43" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F43" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G43" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7594,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U43" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V43" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W43" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X43" t="n">
-        <v>1182.13334335112</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y43" t="n">
-        <v>1182.13334335112</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.4716545351282</v>
+        <v>1789.191809238714</v>
       </c>
       <c r="C44" t="n">
-        <v>724.4716545351282</v>
+        <v>1351.049336422137</v>
       </c>
       <c r="D44" t="n">
-        <v>724.4716545351282</v>
+        <v>915.1395515965814</v>
       </c>
       <c r="E44" t="n">
-        <v>724.4716545351282</v>
+        <v>481.3648067548767</v>
       </c>
       <c r="F44" t="n">
-        <v>724.4716545351282</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J44" t="n">
-        <v>33.94366860160834</v>
+        <v>489.6513714049352</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0247332457074</v>
+        <v>1151.68141381048</v>
       </c>
       <c r="L44" t="n">
-        <v>437.0247332457074</v>
+        <v>1289.83969920455</v>
       </c>
       <c r="M44" t="n">
-        <v>437.0247332457074</v>
+        <v>1291.700232090473</v>
       </c>
       <c r="N44" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.590870343618</v>
       </c>
       <c r="O44" t="n">
-        <v>857.0776321906106</v>
+        <v>1295.376146433873</v>
       </c>
       <c r="P44" t="n">
-        <v>1277.130531135514</v>
+        <v>1957.406188839418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1697.183430080417</v>
+        <v>2505.049203913556</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="U44" t="n">
-        <v>1477.116202953456</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="V44" t="n">
-        <v>1114.499252887282</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="W44" t="n">
-        <v>724.4716545351282</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="X44" t="n">
-        <v>724.4716545351282</v>
+        <v>2623.777503423968</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.4716545351282</v>
+        <v>2215.491379723621</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.6074729349947</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1510117716369</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0607229181902</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9403082451439</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5564698613055</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>95.17716449878458</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.75624203114305</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.85018795938</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>405.7656494959317</v>
       </c>
       <c r="L45" t="n">
-        <v>804.6185656731816</v>
+        <v>406.9966005067959</v>
       </c>
       <c r="M45" t="n">
-        <v>804.6185656731816</v>
+        <v>408.4330622762662</v>
       </c>
       <c r="N45" t="n">
-        <v>804.6185656731816</v>
+        <v>409.907542914449</v>
       </c>
       <c r="O45" t="n">
-        <v>804.6185656731816</v>
+        <v>411.2564046352117</v>
       </c>
       <c r="P45" t="n">
-        <v>1224.671464618085</v>
+        <v>1057.556966982945</v>
       </c>
       <c r="Q45" t="n">
-        <v>1644.724363562988</v>
+        <v>1599.019581975392</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.544351636438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.196356244623</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.041027650752</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.704861201464</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.587343263463</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.264588996657</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3971532355371</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.9113740147578</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>546.2867191875922</v>
+        <v>903.9885648184314</v>
       </c>
       <c r="C46" t="n">
-        <v>546.2867191875922</v>
+        <v>731.4268533016564</v>
       </c>
       <c r="D46" t="n">
-        <v>380.4087263891149</v>
+        <v>565.5488605031791</v>
       </c>
       <c r="E46" t="n">
-        <v>210.6507226398521</v>
+        <v>395.7908567539163</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>219.0838027156725</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.4973771640844</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>140.4130937073626</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>415.7237510582795</v>
       </c>
       <c r="L46" t="n">
-        <v>269.215608100497</v>
+        <v>834.6402622675977</v>
       </c>
       <c r="M46" t="n">
-        <v>689.2685070454004</v>
+        <v>1294.869171117663</v>
       </c>
       <c r="N46" t="n">
-        <v>1109.321405990304</v>
+        <v>1737.855300518818</v>
       </c>
       <c r="O46" t="n">
-        <v>1528.990655216085</v>
+        <v>2158.196353251645</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>2506.278091179906</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2674.86885820422</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>2651.891983827523</v>
       </c>
       <c r="T46" t="n">
-        <v>1611.121303163657</v>
+        <v>2406.033257666111</v>
       </c>
       <c r="U46" t="n">
-        <v>1332.688302416762</v>
+        <v>2127.600521433176</v>
       </c>
       <c r="V46" t="n">
-        <v>1045.732794287192</v>
+        <v>1840.645013303606</v>
       </c>
       <c r="W46" t="n">
-        <v>773.7063898734839</v>
+        <v>1568.618608889898</v>
       </c>
       <c r="X46" t="n">
-        <v>773.7063898734839</v>
+        <v>1323.22685422331</v>
       </c>
       <c r="Y46" t="n">
-        <v>546.2867191875922</v>
+        <v>1095.807183537418</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7984,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078567</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>540.0049805212334</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8845,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8930,7 +8932,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047205</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7345556956094</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956097</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>105.2170416746549</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158815</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,7 +9880,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>316.389926674475</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P35" t="n">
-        <v>30.03100411261585</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M41" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>407.152590549595</v>
+        <v>667.3557723754228</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>137.8648342245497</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.1781318851852</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201043</v>
+        <v>651.735335251587</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>237.6484237362512</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>213.7234204914616</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22559,13 +22561,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>74.02358775106421</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.1718905122115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22787,19 +22789,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>180.7451425550042</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>33.14637336659109</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22838,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>110.034906517485</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>63.43016517136634</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23027,7 +23029,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,13 +23074,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>97.74434809596372</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>96.0830509028429</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473433</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23261,10 +23263,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>137.9164340236052</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.2303358355001</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>90.22000922290086</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23549,13 +23551,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>202.0766743412648</v>
+        <v>90.71437778573906</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23738,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>351.4681642564819</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>172.6985468498939</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>40.81272943803765</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>369.0353499799953</v>
       </c>
     </row>
     <row r="21">
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>229.8062851978057</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>292.8520794123529</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>112.5195422609936</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>131.2385495991668</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>23.65030257151108</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24689,7 +24691,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>238.0313802270755</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24740,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>168.2206048567863</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.4233680290249</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>100.8866705792664</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>368.7791696141422</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>369.0353499799954</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25208,13 +25210,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>108.2870931924949</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>124.3589898130755</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>153.6638446342494</v>
+        <v>369.0353499799955</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25442,19 +25444,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473429</v>
+        <v>90.92021546249589</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>100.494616576183</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>369.4479714591266</v>
       </c>
     </row>
     <row r="42">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>52.94985625022228</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>208.2197249473431</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>14.67957767444437</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>364.3705975540329</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>134.8181822942079</v>
       </c>
       <c r="T46" t="n">
-        <v>158.2191463097362</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>482952.4983251368</v>
+        <v>482952.498325137</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482952.4983251369</v>
+        <v>482952.498325137</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590246.2741397267</v>
+        <v>482952.498325137</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>752376.6588533844</v>
+        <v>482952.4983251369</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482952.4983251369</v>
+        <v>482952.498325137</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482952.4983251369</v>
+        <v>482952.498325137</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482952.4983251369</v>
+        <v>482952.498325137</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482952.4983251368</v>
+        <v>482952.498325137</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343308.8403553945</v>
+        <v>483509.648863922</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="C2" t="n">
         <v>160640.833517505</v>
@@ -26329,31 +26331,31 @@
         <v>160640.833517505</v>
       </c>
       <c r="H2" t="n">
-        <v>196329.1499417269</v>
+        <v>160640.833517505</v>
       </c>
       <c r="I2" t="n">
-        <v>250257.3524652423</v>
+        <v>160640.833517505</v>
       </c>
       <c r="J2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="K2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="L2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="M2" t="n">
         <v>160640.833517505</v>
       </c>
       <c r="N2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="O2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="P2" t="n">
-        <v>114192.2206839698</v>
+        <v>160907.4003690803</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>97732.86753544268</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14853.50628781394</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2056.108373535038</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="C4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.2688617209</v>
       </c>
       <c r="D4" t="n">
         <v>52276.26886172088</v>
@@ -26427,37 +26429,37 @@
         <v>52276.26886172088</v>
       </c>
       <c r="F4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.2688617209</v>
       </c>
       <c r="G4" t="n">
         <v>52276.26886172088</v>
       </c>
       <c r="H4" t="n">
-        <v>63890.07827594741</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904283</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="J4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="K4" t="n">
         <v>52276.26886172088</v>
       </c>
       <c r="L4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="M4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="N4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="O4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="P4" t="n">
-        <v>37160.80836782805</v>
+        <v>52118.62508742069</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40584.92456175771</v>
+      </c>
+      <c r="I5" t="n">
         <v>40584.9245617577</v>
       </c>
-      <c r="F5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40584.9245617577</v>
-      </c>
-      <c r="H5" t="n">
-        <v>55372.66098629306</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40716.04550407668</v>
       </c>
     </row>
     <row r="6">
@@ -26522,13 +26524,13 @@
         <v>-189547.6584900185</v>
       </c>
       <c r="C6" t="n">
-        <v>34152.04009402638</v>
+        <v>34152.04009402636</v>
       </c>
       <c r="D6" t="n">
-        <v>34152.04009402638</v>
+        <v>34152.04009402636</v>
       </c>
       <c r="E6" t="n">
-        <v>67779.6400940264</v>
+        <v>67779.64009402637</v>
       </c>
       <c r="F6" t="n">
         <v>67779.6400940264</v>
@@ -26537,31 +26539,31 @@
         <v>67779.6400940264</v>
       </c>
       <c r="H6" t="n">
-        <v>11443.64132146902</v>
+        <v>67779.64009402644</v>
       </c>
       <c r="I6" t="n">
-        <v>-6633.32514503572</v>
+        <v>67779.64009402638</v>
       </c>
       <c r="J6" t="n">
-        <v>52926.13380621241</v>
+        <v>-106871.7086236798</v>
       </c>
       <c r="K6" t="n">
-        <v>67779.64009402628</v>
+        <v>67779.64009402637</v>
       </c>
       <c r="L6" t="n">
-        <v>67779.64009402634</v>
+        <v>67779.6400940264</v>
       </c>
       <c r="M6" t="n">
-        <v>67779.64009402637</v>
+        <v>67779.6400940264</v>
       </c>
       <c r="N6" t="n">
-        <v>67779.64009402637</v>
+        <v>67779.6400940264</v>
       </c>
       <c r="O6" t="n">
-        <v>67779.64009402634</v>
+        <v>67779.64009402643</v>
       </c>
       <c r="P6" t="n">
-        <v>51234.22417891945</v>
+        <v>66016.62140404788</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
     </row>
     <row r="4">
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="C4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="D4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="E4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="F4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="H4" t="n">
+        <v>667.5152066078571</v>
+      </c>
+      <c r="I4" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="C4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="D4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="E4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="F4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="G4" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="H4" t="n">
-        <v>910.7345556956095</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1278.260503384745</v>
-      </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>668.717214551055</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>367.5259476891358</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.76990983096857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.202007943197941</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,10 +34704,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34859,19 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078567</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>540.0049805212334</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,7 +35652,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35896,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>145.5272350047205</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>910.7345556956094</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O20" t="n">
-        <v>910.7345556956097</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>105.2170416746549</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850634</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158815</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,7 +36293,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,7 +36524,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36598,7 +36600,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36607,16 +36609,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>316.389926674475</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36756,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>145.5272350047205</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M35" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P35" t="n">
-        <v>30.03100411261585</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M41" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P41" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K44" t="n">
-        <v>407.152590549595</v>
+        <v>668.717214551055</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>139.5538236303737</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>1.803309182076418</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>668.7172145510549</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201044</v>
+        <v>0.9247086227794625</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.45097148431347</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.362486586628904</v>
       </c>
       <c r="P45" t="n">
-        <v>424.2958575201043</v>
+        <v>652.828850856296</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R45" t="n">
-        <v>52.98895607821123</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.79365307401839</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>278.0915730817343</v>
       </c>
       <c r="L46" t="n">
-        <v>237.6484237362512</v>
+        <v>423.1479911205234</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>464.8776857071369</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>447.4607367688432</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>424.5869219523504</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.5977150790518</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>170.2937040649635</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174649.6671025919</v>
+        <v>170428.9454635041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22102563.87447304</v>
+        <v>22099924.3576367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7421950.445289526</v>
+        <v>7423353.428718869</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5584760.847774423</v>
+        <v>5584439.107220893</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>54.55340531488891</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>284.9671928144475</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,13 +876,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038662</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>34.7181121725785</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>396.2906240266967</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5944751520217</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>94.21878984361696</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>168.7843377880171</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>28.21509194233073</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>120.122206759728</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>293.6342529536947</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>15.25332473880561</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225712</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1609,16 +1609,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>165.9157018704142</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>344.6131928459466</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225758</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1849,22 +1849,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>45.91568880648681</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>323.7851741783358</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,10 +2092,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>193.4752558847674</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.16791248334784</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>124.8431810293858</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>185.1447535886767</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2566,16 +2566,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>386.2764675442379</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>246.4712383045181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,10 +2718,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>32.98066327132575</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>185.5573750678088</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>92.79003669906677</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>141.703455210081</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022953</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>28.60468344882653</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3088,16 +3088,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>185.557375067808</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>322.0899554844603</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3274,19 +3274,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>54.55340531488891</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>47.61404849749845</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>53.00122480006321</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>53.32772716016052</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>152.5004364948334</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>134.9136167736332</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.75529100421647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.92574903168972</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>50.58044123244948</v>
+        <v>185.1447535886767</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>84.52551230889576</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>41.26298946135317</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.71451543789636</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8537753079323</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5728047847957</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9305612960722</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>22.74710563292977</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T46" t="n">
-        <v>243.400138899798</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6484088706061</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>890.7088327309202</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C2" t="n">
-        <v>890.7088327309202</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D2" t="n">
-        <v>454.7990479053647</v>
+        <v>542.2804111833525</v>
       </c>
       <c r="E2" t="n">
-        <v>454.7990479053647</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="G2" t="n">
         <v>53.40121652862857</v>
@@ -4336,16 +4336,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719777</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2122.992874440923</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1718.137419851956</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1298.994956431267</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>890.7088327309202</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>855.0926075282906</v>
+        <v>1112.61356788236</v>
       </c>
       <c r="C5" t="n">
-        <v>855.0926075282906</v>
+        <v>1112.61356788236</v>
       </c>
       <c r="D5" t="n">
-        <v>855.0926075282906</v>
+        <v>1112.61356788236</v>
       </c>
       <c r="E5" t="n">
-        <v>454.7990479053647</v>
+        <v>678.8388230406549</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>250.9713934498627</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4573,46 +4573,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2087.376649238293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>1682.521194649327</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="X5" t="n">
-        <v>1263.378731228637</v>
+        <v>1947.199262067614</v>
       </c>
       <c r="Y5" t="n">
-        <v>855.0926075282906</v>
+        <v>1538.913138367267</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.9659278567121</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>654.4042163399371</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>488.5262235414597</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>318.768219792197</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0611657539532</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324155</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2574.890331639896</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2329.010885218351</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2050.577884471456</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1763.622376341887</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1491.595971928179</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.204217261591</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y7" t="n">
-        <v>1018.784546575699</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1316.441222337862</v>
+        <v>917.0738856181107</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.441222337862</v>
+        <v>888.5737927470695</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.441222337862</v>
+        <v>888.5737927470695</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F8" t="n">
         <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4810,46 +4810,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2548.725264047865</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2548.725264047865</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2548.725264047865</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2143.869809458898</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X8" t="n">
-        <v>1724.727346038208</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1316.441222337862</v>
+        <v>917.0738856181107</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1902.588421776288</v>
+        <v>1336.2163490388</v>
       </c>
       <c r="C11" t="n">
-        <v>1902.588421776288</v>
+        <v>898.0738762222231</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.988166267505</v>
+        <v>898.0738762222231</v>
       </c>
       <c r="E11" t="n">
-        <v>1172.213421425801</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F11" t="n">
-        <v>744.3459918350084</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G11" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
@@ -5047,46 +5047,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N11" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O11" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V11" t="n">
-        <v>2307.443876365255</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.588421776288</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X11" t="n">
-        <v>1902.588421776288</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y11" t="n">
-        <v>1902.588421776288</v>
+        <v>1336.2163490388</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N12" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O12" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.4772326516127</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C13" t="n">
-        <v>568.9155211348376</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D13" t="n">
-        <v>403.0375283363603</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E13" t="n">
-        <v>233.2795245870976</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F13" t="n">
-        <v>56.57247054885377</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K13" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M13" t="n">
         <v>1292.433105213328</v>
@@ -5223,28 +5223,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R13" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V13" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X13" t="n">
-        <v>1160.715522056492</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>933.2958513705998</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>481.2686461194209</v>
+        <v>927.8702635436207</v>
       </c>
       <c r="C14" t="n">
-        <v>481.2686461194209</v>
+        <v>489.7277907270441</v>
       </c>
       <c r="D14" t="n">
-        <v>481.2686461194209</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="E14" t="n">
-        <v>481.2686461194209</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N14" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O14" t="n">
         <v>1462.721985931055</v>
       </c>
       <c r="P14" t="n">
-        <v>2123.562040472834</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q14" t="n">
         <v>2670.060826431428</v>
@@ -5305,25 +5305,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U14" t="n">
-        <v>2502.469208380505</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V14" t="n">
-        <v>2139.852258314331</v>
+        <v>1759.025288617495</v>
       </c>
       <c r="W14" t="n">
-        <v>1734.996803725364</v>
+        <v>1354.169834028528</v>
       </c>
       <c r="X14" t="n">
-        <v>1315.854340304675</v>
+        <v>1354.169834028528</v>
       </c>
       <c r="Y14" t="n">
-        <v>907.5682166043287</v>
+        <v>1354.169834028528</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L15" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R15" t="n">
         <v>1716.640978007438</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1835.475132246174</v>
+        <v>925.73522355977</v>
       </c>
       <c r="C17" t="n">
-        <v>1397.332659429597</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="D17" t="n">
-        <v>961.4228746040417</v>
+        <v>487.5927507431934</v>
       </c>
       <c r="E17" t="n">
-        <v>527.6481297623368</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="F17" t="n">
-        <v>99.78070017154454</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
         <v>488.6559039815464</v>
@@ -5521,22 +5521,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N17" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O17" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5545,22 +5545,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431428</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W17" t="n">
-        <v>2670.060826431428</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="X17" t="n">
-        <v>2670.060826431428</v>
+        <v>1760.320917745024</v>
       </c>
       <c r="Y17" t="n">
-        <v>2261.774702731082</v>
+        <v>1352.034794044678</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L18" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M18" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N18" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O18" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P18" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5700,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.095648603258</v>
+        <v>1958.055601787957</v>
       </c>
       <c r="C20" t="n">
-        <v>1350.953175786681</v>
+        <v>1519.91312897138</v>
       </c>
       <c r="D20" t="n">
-        <v>915.0433909611256</v>
+        <v>1084.003344145824</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194209</v>
+        <v>650.2285993041196</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
         <v>488.6559039815464</v>
@@ -5758,46 +5758,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1179.226652594814</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M20" t="n">
-        <v>1840.066707136593</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N20" t="n">
-        <v>2500.906761678372</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>2500.906761678372</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="X20" t="n">
-        <v>2250.918363010739</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.395219088166</v>
+        <v>1958.055601787957</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5937,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
-        <v>2545.844385276825</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>2267.41138452993</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>1980.45587640036</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1708.429471986652</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1463.037717320064</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>744.3459918350084</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="C23" t="n">
-        <v>744.3459918350084</v>
+        <v>1306.35999992257</v>
       </c>
       <c r="D23" t="n">
-        <v>744.3459918350084</v>
+        <v>870.4502150970143</v>
       </c>
       <c r="E23" t="n">
         <v>744.3459918350084</v>
@@ -5989,22 +5989,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K23" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M23" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N23" t="n">
-        <v>1375.081325612185</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.921380153963</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P23" t="n">
         <v>2123.562040472833</v>
@@ -6028,13 +6028,13 @@
         <v>1744.502472739146</v>
       </c>
       <c r="W23" t="n">
-        <v>1339.64701815018</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X23" t="n">
-        <v>1152.632115535355</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y23" t="n">
-        <v>744.3459918350084</v>
+        <v>1744.502472739146</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.8950539462403</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C25" t="n">
-        <v>590.3333424294652</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D25" t="n">
-        <v>424.4553496309879</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E25" t="n">
-        <v>254.6973458817252</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F25" t="n">
-        <v>77.9902918434814</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
         <v>53.40121652862856</v>
@@ -6159,7 +6159,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O25" t="n">
         <v>2154.361157596754</v>
@@ -6174,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.819457729424</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U25" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V25" t="n">
-        <v>1699.551502431415</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W25" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X25" t="n">
-        <v>1182.133343351119</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y25" t="n">
-        <v>954.7136726652275</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2078.225803160042</v>
+        <v>1751.82325843001</v>
       </c>
       <c r="C26" t="n">
-        <v>1640.083330343465</v>
+        <v>1313.680785613434</v>
       </c>
       <c r="D26" t="n">
-        <v>1204.173545517909</v>
+        <v>877.7710007878782</v>
       </c>
       <c r="E26" t="n">
-        <v>770.3988006762045</v>
+        <v>443.9962559461733</v>
       </c>
       <c r="F26" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G26" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L26" t="n">
-        <v>1179.226652594814</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M26" t="n">
-        <v>1179.226652594814</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N26" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O26" t="n">
-        <v>1840.066707136593</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>2500.906761678372</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
@@ -6259,19 +6259,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U26" t="n">
-        <v>2327.186649932282</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V26" t="n">
-        <v>2078.225803160042</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W26" t="n">
-        <v>2078.225803160042</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="X26" t="n">
-        <v>2078.225803160042</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="Y26" t="n">
-        <v>2078.225803160042</v>
+        <v>2178.122828914918</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
         <v>79.46488968908616</v>
@@ -6308,19 +6308,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O27" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P27" t="n">
         <v>1058.729261281022</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C28" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D28" t="n">
-        <v>535.6017198506702</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E28" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F28" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G28" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6390,7 +6390,7 @@
         <v>414.739356264454</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324152</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
@@ -6417,19 +6417,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y28" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>931.3608944498341</v>
+        <v>1650.775162942109</v>
       </c>
       <c r="C29" t="n">
-        <v>931.3608944498341</v>
+        <v>1212.632690125533</v>
       </c>
       <c r="D29" t="n">
-        <v>931.3608944498341</v>
+        <v>776.7229052999771</v>
       </c>
       <c r="E29" t="n">
-        <v>931.3608944498341</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F29" t="n">
-        <v>743.9292024621484</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G29" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L29" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M29" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U29" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V29" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W29" t="n">
-        <v>1339.647018150181</v>
+        <v>1650.775162942109</v>
       </c>
       <c r="X29" t="n">
-        <v>1339.647018150181</v>
+        <v>1650.775162942109</v>
       </c>
       <c r="Y29" t="n">
-        <v>931.3608944498341</v>
+        <v>1650.775162942109</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6545,22 +6545,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K30" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M30" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N30" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O30" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P30" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q30" t="n">
         <v>1599.468199913098</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.4772326516127</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C31" t="n">
-        <v>568.9155211348376</v>
+        <v>760.7341398538248</v>
       </c>
       <c r="D31" t="n">
-        <v>403.0375283363603</v>
+        <v>594.8561470553475</v>
       </c>
       <c r="E31" t="n">
-        <v>233.2795245870976</v>
+        <v>425.0981433060848</v>
       </c>
       <c r="F31" t="n">
-        <v>56.57247054885377</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G31" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H31" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2107.119422805321</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C32" t="n">
-        <v>1668.976949988744</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D32" t="n">
-        <v>1233.067165163189</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E32" t="n">
-        <v>799.2924203214839</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F32" t="n">
-        <v>371.4249907306916</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L32" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N32" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O32" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6730,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>2107.119422805321</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>2107.119422805321</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X32" t="n">
-        <v>2107.119422805321</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y32" t="n">
-        <v>2107.119422805321</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D34" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E34" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F34" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
         <v>139.9809016933184</v>
@@ -6882,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S34" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U34" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V34" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W34" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X34" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y34" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1416.332668825485</v>
+        <v>1217.000418100404</v>
       </c>
       <c r="C35" t="n">
-        <v>978.1901960089081</v>
+        <v>778.8579452838278</v>
       </c>
       <c r="D35" t="n">
-        <v>542.2804111833525</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E35" t="n">
-        <v>108.5056663416477</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F35" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G35" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N35" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O35" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P35" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W35" t="n">
-        <v>2670.060826431428</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X35" t="n">
-        <v>2250.918363010739</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y35" t="n">
-        <v>1842.632239310392</v>
+        <v>1542.343807478647</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C37" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D37" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E37" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F37" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G37" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
         <v>139.9809016933184</v>
@@ -7122,25 +7122,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S37" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T37" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V37" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W37" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X37" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1789.095648603258</v>
+        <v>1324.483577572625</v>
       </c>
       <c r="C38" t="n">
-        <v>1350.953175786681</v>
+        <v>1324.483577572625</v>
       </c>
       <c r="D38" t="n">
-        <v>915.0433909611256</v>
+        <v>888.5737927470695</v>
       </c>
       <c r="E38" t="n">
-        <v>481.2686461194209</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="F38" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L38" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M38" t="n">
-        <v>1375.081325612186</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N38" t="n">
-        <v>2035.921380153964</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O38" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V38" t="n">
-        <v>2670.060826431428</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W38" t="n">
-        <v>2670.060826431428</v>
+        <v>2169.925611478222</v>
       </c>
       <c r="X38" t="n">
-        <v>2250.918363010739</v>
+        <v>1750.783148057533</v>
       </c>
       <c r="Y38" t="n">
-        <v>1842.632239310392</v>
+        <v>1750.783148057533</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>992.5572028308848</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C40" t="n">
-        <v>819.9954913141097</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D40" t="n">
-        <v>654.1174985156324</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E40" t="n">
-        <v>484.3594947663697</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F40" t="n">
-        <v>307.6524407281259</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0611657539536</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0611657539536</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862891</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7356,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T40" t="n">
-        <v>2494.602160192524</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>2216.169159445629</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V40" t="n">
-        <v>1929.21365131606</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W40" t="n">
-        <v>1657.187246902351</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X40" t="n">
-        <v>1411.795492235764</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y40" t="n">
-        <v>1184.375821549872</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1789.512437976118</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C41" t="n">
-        <v>1351.369965159541</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D41" t="n">
-        <v>915.4601803339856</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E41" t="n">
-        <v>481.6854354922808</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F41" t="n">
-        <v>53.81800590148856</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G41" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H41" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L41" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M41" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N41" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O41" t="n">
-        <v>2035.921380153964</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P41" t="n">
-        <v>2670.060826431428</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q41" t="n">
         <v>2670.060826431428</v>
@@ -7438,25 +7438,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U41" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V41" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W41" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="X41" t="n">
-        <v>2250.918363010739</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="Y41" t="n">
-        <v>2215.812008461025</v>
+        <v>2327.186649932281</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C42" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D42" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E42" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F42" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G42" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P42" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q42" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R42" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S42" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T42" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U42" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V42" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W42" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X42" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y42" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C43" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D43" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E43" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F43" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7596,25 +7596,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S43" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T43" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V43" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y43" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.191809238714</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C44" t="n">
-        <v>1351.049336422137</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D44" t="n">
-        <v>915.1395515965814</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E44" t="n">
-        <v>481.3648067548767</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F44" t="n">
-        <v>53.4973771640844</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G44" t="n">
-        <v>53.4973771640844</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H44" t="n">
-        <v>53.4973771640844</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I44" t="n">
-        <v>53.4973771640844</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
-        <v>489.6513714049352</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>1151.68141381048</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>1289.83969920455</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>1291.700232090473</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>1293.590870343618</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
-        <v>1295.376146433873</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1957.406188839418</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2505.049203913556</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
-        <v>2674.86885820422</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2674.86885820422</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2674.86885820422</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2674.86885820422</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V44" t="n">
-        <v>2674.86885820422</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W44" t="n">
-        <v>2674.86885820422</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X44" t="n">
-        <v>2623.777503423968</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.491379723621</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.6074729349947</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1510117716369</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0607229181902</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9403082451439</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5564698613055</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>95.17716449878458</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.4973771640844</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
-        <v>79.75624203114305</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>404.85018795938</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>405.7656494959317</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>406.9966005067959</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>408.4330622762662</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>409.907542914449</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>411.2564046352117</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1057.556966982945</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.019581975392</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.544351636438</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.196356244623</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.041027650752</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.704861201464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.587343263463</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>962.264588996657</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3971532355371</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.9113740147578</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>903.9885648184314</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C46" t="n">
-        <v>731.4268533016564</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D46" t="n">
-        <v>565.5488605031791</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E46" t="n">
-        <v>395.7908567539163</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F46" t="n">
-        <v>219.0838027156725</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G46" t="n">
-        <v>53.4973771640844</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H46" t="n">
-        <v>53.4973771640844</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.4973771640844</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
-        <v>140.4130937073626</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>415.7237510582795</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>834.6402622675977</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>1294.869171117663</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.855300518818</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>2158.196353251645</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>2506.278091179906</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>2674.86885820422</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>2674.86885820422</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.891983827523</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T46" t="n">
-        <v>2406.033257666111</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.600521433176</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.645013303606</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W46" t="n">
-        <v>1568.618608889898</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X46" t="n">
-        <v>1323.22685422331</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y46" t="n">
-        <v>1095.807183537418</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>145.5272350047208</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="M2" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645587</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>316.3899266744752</v>
-      </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,22 +9406,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>88.52591951401018</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9877,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10351,28 +10351,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P32" t="n">
-        <v>316.3899266744752</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P41" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.3557723754228</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>137.8648342245497</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.1781318851852</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>651.735335251587</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>342.8304477480798</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22603,13 +22603,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>74.02358775106421</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,13 +22764,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22792,13 +22792,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>33.14637336659109</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>201.789377910947</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22843,10 +22843,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>63.43016517136634</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>56.36113619101567</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>405.5459561460802</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>97.74434809596372</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>137.9164340236052</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>414.1836726544822</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -23515,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>90.71437778573906</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>14.3775877195651</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>351.4681642564819</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>91.16586460814665</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>230.113499410117</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.0353499799953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,13 +24208,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>304.5938163639019</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>229.8062851978057</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>37.31228775064642</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>112.5195422609936</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>131.2385495991668</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>238.0313802270755</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>308.0168633440102</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>33.23652828778035</v>
       </c>
       <c r="G31" t="n">
-        <v>160.7958207444076</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>368.7791696141422</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>229.3936637186744</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>99.94661929559834</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>369.0353499799954</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>369.0353499799955</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -25450,16 +25450,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>347.4791728829165</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.71657238081384</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>90.92021546249589</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>287.1229580064255</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>369.4479714591266</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3731502167427</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.1292424873029</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.5714639696243</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.819703146337</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6292234284552</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>364.3705975540329</v>
+        <v>229.8062851978057</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4604679489429</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.62897272389382</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.98777588476758</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>134.8181822942079</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482952.498325137</v>
+        <v>482952.4983251369</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482952.498325137</v>
+        <v>482952.4983251369</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482952.498325137</v>
+        <v>482952.4983251369</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482952.498325137</v>
+        <v>482952.4983251369</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>482952.498325137</v>
+        <v>482952.4983251369</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482952.498325137</v>
+        <v>482952.4983251369</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482952.498325137</v>
+        <v>482952.4983251368</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>483509.648863922</v>
+        <v>482952.4983251369</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>160640.833517505</v>
       </c>
       <c r="C2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="D2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="E2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="F2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="G2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="H2" t="n">
         <v>160640.833517505</v>
       </c>
       <c r="I2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="J2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="K2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="L2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="M2" t="n">
         <v>160640.833517505</v>
@@ -26355,7 +26355,7 @@
         <v>160640.833517505</v>
       </c>
       <c r="P2" t="n">
-        <v>160907.4003690803</v>
+        <v>160640.8335175049</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2056.108373535038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,7 +26420,7 @@
         <v>52276.26886172089</v>
       </c>
       <c r="C4" t="n">
-        <v>52276.2688617209</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="D4" t="n">
         <v>52276.26886172088</v>
@@ -26429,7 +26429,7 @@
         <v>52276.26886172088</v>
       </c>
       <c r="F4" t="n">
-        <v>52276.2688617209</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="G4" t="n">
         <v>52276.26886172088</v>
@@ -26438,28 +26438,28 @@
         <v>52276.26886172088</v>
       </c>
       <c r="I4" t="n">
+        <v>52276.26886172089</v>
+      </c>
+      <c r="J4" t="n">
         <v>52276.26886172088</v>
-      </c>
-      <c r="J4" t="n">
-        <v>52276.26886172089</v>
       </c>
       <c r="K4" t="n">
         <v>52276.26886172088</v>
       </c>
       <c r="L4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="M4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="N4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="O4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="P4" t="n">
-        <v>52118.62508742069</v>
+        <v>52276.26886172088</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
         <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40716.04550407668</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189547.6584900185</v>
+        <v>-190042.5487185997</v>
       </c>
       <c r="C6" t="n">
-        <v>34152.04009402636</v>
+        <v>33657.14986544509</v>
       </c>
       <c r="D6" t="n">
-        <v>34152.04009402636</v>
+        <v>33657.14986544509</v>
       </c>
       <c r="E6" t="n">
-        <v>67779.64009402637</v>
+        <v>67284.7498654451</v>
       </c>
       <c r="F6" t="n">
-        <v>67779.6400940264</v>
+        <v>67284.74986544509</v>
       </c>
       <c r="G6" t="n">
-        <v>67779.6400940264</v>
+        <v>67284.74986544509</v>
       </c>
       <c r="H6" t="n">
-        <v>67779.64009402644</v>
+        <v>67284.74986544513</v>
       </c>
       <c r="I6" t="n">
-        <v>67779.64009402638</v>
+        <v>67284.74986544505</v>
       </c>
       <c r="J6" t="n">
-        <v>-106871.7086236798</v>
+        <v>-107366.598852261</v>
       </c>
       <c r="K6" t="n">
-        <v>67779.64009402637</v>
+        <v>67284.7498654451</v>
       </c>
       <c r="L6" t="n">
-        <v>67779.6400940264</v>
+        <v>67284.74986544508</v>
       </c>
       <c r="M6" t="n">
-        <v>67779.6400940264</v>
+        <v>67284.74986544512</v>
       </c>
       <c r="N6" t="n">
-        <v>67779.6400940264</v>
+        <v>67284.74986544513</v>
       </c>
       <c r="O6" t="n">
-        <v>67779.64009402643</v>
+        <v>67284.74986544513</v>
       </c>
       <c r="P6" t="n">
-        <v>66016.62140404788</v>
+        <v>67284.7498654451</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.662332998740292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26792,46 +26792,46 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>668.717214551055</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.662332998740292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.202007943197941</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01070284622609162</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1096105239129608</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9083906948817444</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.361442175632203</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.688989405823955</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.879326147397211</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.909735609237095</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.803309182076396</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.539082665869759</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.155786985397852</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.6723126642497282</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.243891108377063</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04685170935471609</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0008562276980873294</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005726527582196101</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05530620059647288</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.19716334000105</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5410312747723081</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9247086227794468</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1.243384859458851</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.450971484313459</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.489374382002836</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.362486586628912</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.093515604709008</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7309862225975234</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3555470370770528</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.106367738204388</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.02308192477209743</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0003767452356707962</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004800928358384133</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04268461758636078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1443770091775883</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3394256349377582</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.55778058563772</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7137671124819467</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7525673425783418</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.734672973242547</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6785894010559684</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5806504625449317</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4020122828097841</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2158671969142538</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.083667087845658</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.02051305753127766</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0002618688195482257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
+        <v>145.5272350047208</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>667.5152066078572</v>
-      </c>
-      <c r="M2" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984391</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,19 +35576,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>316.3899266744752</v>
-      </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35889,7 +35889,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P23" t="n">
-        <v>88.52591951401018</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158827</v>
@@ -36524,13 +36524,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36597,25 +36597,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>30.03100411261585</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36758,10 +36758,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37071,28 +37071,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P32" t="n">
-        <v>316.3899266744752</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37548,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078571</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37709,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P41" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>440.5595901422736</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>668.717214551055</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>139.5538236303737</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.879326147397251</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.909735609237032</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
-        <v>1.803309182076418</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>668.7172145510549</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
-        <v>553.17476270115</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>171.535004334004</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.52410592632187</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>328.3777231598353</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9247086227794625</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>1.243384859458843</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.45097148431347</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.489374382002836</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1.362486586628904</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>652.828850856296</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.9319343358052</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.7118885465111</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.79365307401839</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
-        <v>278.0915730817343</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>423.1479911205234</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.8776857071369</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>447.4607367688432</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.5869219523504</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
-        <v>351.5977150790518</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.2937040649635</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
